--- a/430300/共享数据结构.xlsx
+++ b/430300/共享数据结构.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20340"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20341"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Interface\430300\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amani\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91C45521-3A71-4D74-A352-1365E386AA7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FE9B56C-E58D-4288-B094-F7B0FEFD5127}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="854" xr2:uid="{0B34C571-45BF-4541-BC12-EB49BB7FCE80}"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="854" activeTab="1" xr2:uid="{0B34C571-45BF-4541-BC12-EB49BB7FCE80}"/>
   </bookViews>
   <sheets>
     <sheet name="表说明" sheetId="22" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <author>高大伟</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{4208E22E-AD2F-4889-AB0A-9147EC6CABBE}">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{4208E22E-AD2F-4889-AB0A-9147EC6CABBE}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="517">
   <si>
     <t>序号</t>
   </si>
@@ -165,51 +165,30 @@
     <t>计税价格</t>
   </si>
   <si>
-    <t>QS</t>
-  </si>
-  <si>
     <t>契税</t>
   </si>
   <si>
     <t>税额</t>
   </si>
   <si>
-    <t>ZZS</t>
-  </si>
-  <si>
     <t>增值税</t>
   </si>
   <si>
-    <t>CSWHJSS</t>
-  </si>
-  <si>
     <t>城市维护建设税</t>
   </si>
   <si>
-    <t>DFJYFJ</t>
-  </si>
-  <si>
     <t>地方教育费附加</t>
   </si>
   <si>
     <t xml:space="preserve">税额 </t>
   </si>
   <si>
-    <t>GRSDS</t>
-  </si>
-  <si>
     <t>个人所得税</t>
   </si>
   <si>
-    <t>YHS</t>
-  </si>
-  <si>
     <t>印花税</t>
   </si>
   <si>
-    <t>TDZJS</t>
-  </si>
-  <si>
     <t>土地增值税</t>
   </si>
   <si>
@@ -370,15 +349,9 @@
     <t>退税原因</t>
   </si>
   <si>
-    <t>SWBDCTDDJID</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
-    <t>主键</t>
-  </si>
-  <si>
     <t>自增字段</t>
   </si>
   <si>
@@ -593,1091 +566,1175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SPLX</t>
+  </si>
+  <si>
+    <t>包括买方卖方完税证或发票</t>
+  </si>
+  <si>
+    <t>LJDZ</t>
+  </si>
+  <si>
+    <t>扫描件的路径（链接生成PDF文件）</t>
+  </si>
+  <si>
+    <t>Bz</t>
+  </si>
+  <si>
+    <t>SWFWSXID</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>房间表主键</t>
+  </si>
+  <si>
+    <t>HOUSEID</t>
+  </si>
+  <si>
+    <t>幢号</t>
+  </si>
+  <si>
+    <t>ROOMNUM</t>
+  </si>
+  <si>
+    <t>房号</t>
+  </si>
+  <si>
+    <t>室号部位</t>
+  </si>
+  <si>
+    <t>BSIT</t>
+  </si>
+  <si>
+    <t>坐落</t>
+  </si>
+  <si>
+    <t>BAREA</t>
+  </si>
+  <si>
+    <t>decimal(18, 4)</t>
+  </si>
+  <si>
+    <t>BUSE</t>
+  </si>
+  <si>
+    <t>FWLX</t>
+  </si>
+  <si>
+    <t>T.3字典表</t>
+  </si>
+  <si>
+    <t>CURFLR</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>层次,所在层</t>
+  </si>
+  <si>
+    <t>TTLFLRS</t>
+  </si>
+  <si>
+    <t>总层数</t>
+  </si>
+  <si>
+    <t>FNSHDATE</t>
+  </si>
+  <si>
+    <t>竣工日期</t>
+  </si>
+  <si>
+    <t>BSTRUCT</t>
+  </si>
+  <si>
+    <t>A.6字典表</t>
+  </si>
+  <si>
+    <t>BZCDYH</t>
+  </si>
+  <si>
+    <t>BDCYWLS</t>
+  </si>
+  <si>
+    <t>CSSJ</t>
+  </si>
+  <si>
+    <t>产生时间</t>
+  </si>
+  <si>
+    <t>TNMJ</t>
+  </si>
+  <si>
+    <t>套内面积</t>
+  </si>
+  <si>
+    <t>FWXZ</t>
+  </si>
+  <si>
+    <t>房屋性质（数据字典）</t>
+  </si>
+  <si>
+    <t>CQLY</t>
+  </si>
+  <si>
+    <t>产权来源</t>
+  </si>
+  <si>
+    <t>A.5字典表</t>
+  </si>
+  <si>
+    <t>JYJG</t>
+  </si>
+  <si>
+    <t>交易价格</t>
+  </si>
+  <si>
+    <t>JYSJ</t>
+  </si>
+  <si>
+    <t>交易时间</t>
+  </si>
+  <si>
+    <t>HTQDSJ</t>
+  </si>
+  <si>
+    <t>合同签订时间</t>
+  </si>
+  <si>
+    <t>FZRQ</t>
+  </si>
+  <si>
+    <t>发证日期</t>
+  </si>
+  <si>
+    <t>申请登记时间</t>
+  </si>
+  <si>
+    <t>Bdcywzt</t>
+  </si>
+  <si>
+    <t>不动产业务状态</t>
+  </si>
+  <si>
+    <t>SNAME</t>
+  </si>
+  <si>
+    <t>权利人名称</t>
+  </si>
+  <si>
+    <t>SCTYPE</t>
+  </si>
+  <si>
+    <t>权利人证件类型(数据字典)</t>
+  </si>
+  <si>
+    <t>SCNUM</t>
+  </si>
+  <si>
+    <t>权利人证件号</t>
+  </si>
+  <si>
+    <t>SHARENUM</t>
+  </si>
+  <si>
+    <t>证书号</t>
+  </si>
+  <si>
+    <t>QLRXZ</t>
+  </si>
+  <si>
+    <t>权利人类型(数据字典)</t>
+  </si>
+  <si>
+    <t>A.7字典表</t>
+  </si>
+  <si>
+    <t>GYQK</t>
+  </si>
+  <si>
+    <t>共有方式</t>
+  </si>
+  <si>
+    <t>A.8字典表</t>
+  </si>
+  <si>
+    <t>QLRLB</t>
+  </si>
+  <si>
+    <t>权利人类别(数据字典)</t>
+  </si>
+  <si>
+    <t>A.9字典表</t>
+  </si>
+  <si>
+    <t>ZYFE</t>
+  </si>
+  <si>
+    <t>占有份额</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>土地权属</t>
+  </si>
+  <si>
+    <t>国有土地使用权出让</t>
+  </si>
+  <si>
+    <t>土地使用权出售</t>
+  </si>
+  <si>
+    <t>土地使用权赠与</t>
+  </si>
+  <si>
+    <t>土地使用权交换</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其他</t>
+  </si>
+  <si>
+    <t>房屋权属</t>
+  </si>
+  <si>
+    <t>房屋商品房买卖(增量房)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">房屋二手房买卖(存量房) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    房屋继承</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    房屋交换</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    房屋赠与 </t>
+  </si>
+  <si>
+    <t>未审核的临时状态</t>
+  </si>
+  <si>
+    <t>审核通过</t>
+  </si>
+  <si>
+    <t>审核不通过</t>
+  </si>
+  <si>
+    <t>退件</t>
+  </si>
+  <si>
+    <t>住宅</t>
+  </si>
+  <si>
+    <t>8层以内住宅(无电梯)</t>
+  </si>
+  <si>
+    <t>8层以内住宅(有电梯)</t>
+  </si>
+  <si>
+    <t>8层以上住宅(无电梯)</t>
+  </si>
+  <si>
+    <t>8层以上住宅(有电梯)</t>
+  </si>
+  <si>
+    <t>独栋别墅</t>
+  </si>
+  <si>
+    <t>联排别墅</t>
+  </si>
+  <si>
+    <t>叠拼别墅</t>
+  </si>
+  <si>
+    <t>双拼别墅</t>
+  </si>
+  <si>
+    <t>独立民宅</t>
+  </si>
+  <si>
+    <t>自建房（私房联建）</t>
+  </si>
+  <si>
+    <t>其他住宅</t>
+  </si>
+  <si>
+    <t>非住宅</t>
+  </si>
+  <si>
+    <t>临街商铺</t>
+  </si>
+  <si>
+    <t>商业用房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商场商铺 </t>
+  </si>
+  <si>
+    <t>车库</t>
+  </si>
+  <si>
+    <t>办公用房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仓库用房 </t>
+  </si>
+  <si>
+    <t>仓储用房</t>
+  </si>
+  <si>
+    <t>工厂厂房</t>
+  </si>
+  <si>
+    <t>工业用房</t>
+  </si>
+  <si>
+    <t>综合用房</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>其他非住宅</t>
+  </si>
+  <si>
+    <t>规划用途</t>
+  </si>
+  <si>
+    <t>别墅</t>
+  </si>
+  <si>
+    <t>车库、车位</t>
+  </si>
+  <si>
+    <t>杂物间</t>
+  </si>
+  <si>
+    <t>商业</t>
+  </si>
+  <si>
+    <t>工业</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>医疗卫生</t>
+  </si>
+  <si>
+    <t>文化娱乐</t>
+  </si>
+  <si>
+    <t>园林绿化</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>交通</t>
+  </si>
+  <si>
+    <t>军事</t>
+  </si>
+  <si>
+    <t>会所</t>
+  </si>
+  <si>
+    <t>物业服务用房</t>
+  </si>
+  <si>
+    <t>居住区公共配套服务用房</t>
+  </si>
+  <si>
+    <t>仓储</t>
+  </si>
+  <si>
+    <t>市政设施</t>
+  </si>
+  <si>
+    <t>人民防空</t>
+  </si>
+  <si>
+    <t>宗教</t>
+  </si>
+  <si>
+    <t>监狱</t>
+  </si>
+  <si>
+    <t>涉外</t>
+  </si>
+  <si>
+    <t>房屋用途</t>
+  </si>
+  <si>
+    <t>成套住宅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  高档公寓</t>
+  </si>
+  <si>
+    <t>非成套住宅</t>
+  </si>
+  <si>
+    <t>集体宿舍</t>
+  </si>
+  <si>
+    <t>工业、交通、仓储</t>
+  </si>
+  <si>
+    <t>公共设施</t>
+  </si>
+  <si>
+    <t>铁路</t>
+  </si>
+  <si>
+    <t>民航</t>
+  </si>
+  <si>
+    <t>航运</t>
+  </si>
+  <si>
+    <t>公共运输</t>
+  </si>
+  <si>
+    <t>商业、金融、信息</t>
+  </si>
+  <si>
+    <t>商业服务</t>
+  </si>
+  <si>
+    <t>经营</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t>金融保险</t>
+  </si>
+  <si>
+    <t>电讯信息</t>
+  </si>
+  <si>
+    <t>教育、医疗、卫生、科研</t>
+  </si>
+  <si>
+    <t>科研</t>
+  </si>
+  <si>
+    <t>文化、娱乐、体育</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>新闻</t>
+  </si>
+  <si>
+    <t>娱乐</t>
+  </si>
+  <si>
+    <t>办公</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>物管用房</t>
+  </si>
+  <si>
+    <t>房屋结构</t>
+  </si>
+  <si>
+    <t>钢结构</t>
+  </si>
+  <si>
+    <t>钢和钢筋混凝土结构</t>
+  </si>
+  <si>
+    <t>钢筋混凝土结构</t>
+  </si>
+  <si>
+    <t>混合结构</t>
+  </si>
+  <si>
+    <t>砖木结构</t>
+  </si>
+  <si>
+    <t>其它结构</t>
+  </si>
+  <si>
+    <t>房屋性质</t>
+  </si>
+  <si>
+    <t>市场化商品房</t>
+  </si>
+  <si>
+    <t>动迁房</t>
+  </si>
+  <si>
+    <t>配套商品房</t>
+  </si>
+  <si>
+    <t>公共租赁住房</t>
+  </si>
+  <si>
+    <t>廉租住房</t>
+  </si>
+  <si>
+    <t>限价普通商品住房</t>
+  </si>
+  <si>
+    <t>经济适用住房</t>
+  </si>
+  <si>
+    <t>定销商品房</t>
+  </si>
+  <si>
+    <t>集资建房</t>
+  </si>
+  <si>
+    <t>福利房</t>
+  </si>
+  <si>
+    <t>继承</t>
+  </si>
+  <si>
+    <t>调拨</t>
+  </si>
+  <si>
+    <t>价拔</t>
+  </si>
+  <si>
+    <t>拔用</t>
+  </si>
+  <si>
+    <t>协助过户</t>
+  </si>
+  <si>
+    <t>分析</t>
+  </si>
+  <si>
+    <t>买受</t>
+  </si>
+  <si>
+    <t>受赠</t>
+  </si>
+  <si>
+    <t>交换</t>
+  </si>
+  <si>
+    <t>自建</t>
+  </si>
+  <si>
+    <t>翻建</t>
+  </si>
+  <si>
+    <t>征用</t>
+  </si>
+  <si>
+    <t>收购</t>
+  </si>
+  <si>
+    <t>证件种类</t>
+  </si>
+  <si>
+    <t>身份证</t>
+  </si>
+  <si>
+    <t>港澳台身份证</t>
+  </si>
+  <si>
+    <t>护照</t>
+  </si>
+  <si>
+    <t>户口簿</t>
+  </si>
+  <si>
+    <t>军官证（士兵证）</t>
+  </si>
+  <si>
+    <t>统一社会信用证</t>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权利人类型</t>
+  </si>
+  <si>
+    <t>个人</t>
+  </si>
+  <si>
+    <t>企业</t>
+  </si>
+  <si>
+    <t>事业单位</t>
+  </si>
+  <si>
+    <t>国家机关</t>
+  </si>
+  <si>
+    <t>单独所有</t>
+  </si>
+  <si>
+    <t>共同共有</t>
+  </si>
+  <si>
+    <t>按份共有</t>
+  </si>
+  <si>
+    <t>其它共有</t>
+  </si>
+  <si>
+    <t>权利人类别</t>
+  </si>
+  <si>
+    <t>被查封人</t>
+  </si>
+  <si>
+    <t>查封申请人</t>
+  </si>
+  <si>
+    <t>预告抵押权人</t>
+  </si>
+  <si>
+    <t>预告抵押义务人</t>
+  </si>
+  <si>
+    <t>权利人</t>
+  </si>
+  <si>
+    <t>义务人</t>
+  </si>
+  <si>
+    <t>抵押权人</t>
+  </si>
+  <si>
+    <t>抵押人</t>
+  </si>
+  <si>
+    <t>预告权利人</t>
+  </si>
+  <si>
+    <t>预告义务人</t>
+  </si>
+  <si>
+    <t>债务人</t>
+  </si>
+  <si>
+    <t>申请人</t>
+  </si>
+  <si>
+    <t>权利人代理人</t>
+  </si>
+  <si>
+    <t>义务人代理人</t>
+  </si>
+  <si>
+    <t>字典？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+  </si>
+  <si>
+    <t>ZRF_NAME</t>
+  </si>
+  <si>
+    <t>转让方名称</t>
+  </si>
+  <si>
+    <t>ZRF_ZJLX</t>
+  </si>
+  <si>
+    <t>转让方证件类型</t>
+  </si>
+  <si>
+    <t>ZRF_ID</t>
+  </si>
+  <si>
+    <t>转让方证件号</t>
+  </si>
+  <si>
+    <t>ZRF_TEL</t>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+  </si>
+  <si>
+    <t>转让方联系电话</t>
+  </si>
+  <si>
+    <t>CSF_NAME</t>
+  </si>
+  <si>
+    <t>承受方姓名</t>
+  </si>
+  <si>
+    <t>CSF_ZJLX</t>
+  </si>
+  <si>
+    <t>承受方证件类型</t>
+  </si>
+  <si>
+    <t>CSF_ID</t>
+  </si>
+  <si>
+    <t>承受方证件号</t>
+  </si>
+  <si>
+    <t>CSF_TEL</t>
+  </si>
+  <si>
+    <t>承受方联系电话</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>层高</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>朝向</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>端房</t>
+  </si>
+  <si>
+    <t>JG</t>
+  </si>
+  <si>
+    <t>景观</t>
+  </si>
+  <si>
+    <t>ZXQK</t>
+  </si>
+  <si>
+    <t>装修情况</t>
+  </si>
+  <si>
+    <t>SFSYFC</t>
+  </si>
+  <si>
+    <t>是否私有房产</t>
+  </si>
+  <si>
+    <t>NUMBER(12,2)</t>
+  </si>
+  <si>
+    <t>HTZJ</t>
+  </si>
+  <si>
+    <t>合同总价</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>JCNF</t>
+  </si>
+  <si>
+    <t>VARCHAR2(4)</t>
+  </si>
+  <si>
+    <t>建成年份</t>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不动产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Varchar(50）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不动产证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDCZH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(250)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSWSJS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSWSRQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契税完税日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契税完税基数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.2字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGJG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估业务号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAX_SWXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税务完税信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAX_SWSH_TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税务审核表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAX_TSXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税务退税信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税务税票附件信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAX_SPFJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗地属性结构描述表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDC_FWSX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋属性表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDC_CQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDC_QLR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权利人表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDC_ZD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T.2字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于共享不动产交易过程中交易数据信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于共享不动产交易涉及的完税数据信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.6字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.3字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.4字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考资料：《(新)20190102湘潭市税务局与湘潭市国土不动产登记系统数据库对接方案(修改终稿)(税务)》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YWH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Varchar（50）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除，原因与YWH字段重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.10字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">退件 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一次交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JYFBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易方标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0转让方；1承受方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>SPLX</t>
-  </si>
-  <si>
-    <t>包括买方卖方完税证或发票</t>
-  </si>
-  <si>
-    <t>LJDZ</t>
-  </si>
-  <si>
-    <t>扫描件的路径（链接生成PDF文件）</t>
-  </si>
-  <si>
-    <t>Bz</t>
-  </si>
-  <si>
-    <t>SWFWSXID</t>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
-    <t>房间表主键</t>
-  </si>
-  <si>
-    <t>HOUSEID</t>
-  </si>
-  <si>
-    <t>幢号</t>
-  </si>
-  <si>
-    <t>ROOMNUM</t>
-  </si>
-  <si>
-    <t>房号</t>
-  </si>
-  <si>
-    <t>室号部位</t>
-  </si>
-  <si>
-    <t>BSIT</t>
-  </si>
-  <si>
-    <t>坐落</t>
-  </si>
-  <si>
-    <t>BAREA</t>
-  </si>
-  <si>
-    <t>decimal(18, 4)</t>
-  </si>
-  <si>
-    <t>BUSE</t>
-  </si>
-  <si>
-    <t>FWLX</t>
-  </si>
-  <si>
-    <t>T.3字典表</t>
-  </si>
-  <si>
-    <t>CURFLR</t>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>层次,所在层</t>
-  </si>
-  <si>
-    <t>TTLFLRS</t>
-  </si>
-  <si>
-    <t>总层数</t>
-  </si>
-  <si>
-    <t>FNSHDATE</t>
-  </si>
-  <si>
-    <t>竣工日期</t>
-  </si>
-  <si>
-    <t>BSTRUCT</t>
-  </si>
-  <si>
-    <t>A.6字典表</t>
-  </si>
-  <si>
-    <t>BZCDYH</t>
-  </si>
-  <si>
-    <t>BDCYWLS</t>
-  </si>
-  <si>
-    <t>CSSJ</t>
-  </si>
-  <si>
-    <t>产生时间</t>
-  </si>
-  <si>
-    <t>TNMJ</t>
-  </si>
-  <si>
-    <t>套内面积</t>
-  </si>
-  <si>
-    <t>SWCQID</t>
-  </si>
-  <si>
-    <t>自增</t>
-  </si>
-  <si>
-    <t>FWXZ</t>
-  </si>
-  <si>
-    <t>房屋性质（数据字典）</t>
-  </si>
-  <si>
-    <t>CQLY</t>
-  </si>
-  <si>
-    <t>产权来源</t>
-  </si>
-  <si>
-    <t>A.5字典表</t>
-  </si>
-  <si>
-    <t>JYJG</t>
-  </si>
-  <si>
-    <t>交易价格</t>
-  </si>
-  <si>
-    <t>JYSJ</t>
-  </si>
-  <si>
-    <t>交易时间</t>
-  </si>
-  <si>
-    <t>HTQDSJ</t>
-  </si>
-  <si>
-    <t>合同签订时间</t>
-  </si>
-  <si>
-    <t>FZRQ</t>
-  </si>
-  <si>
-    <t>发证日期</t>
-  </si>
-  <si>
-    <t>申请登记时间</t>
-  </si>
-  <si>
-    <t>Bdcywzt</t>
-  </si>
-  <si>
-    <t>不动产业务状态</t>
-  </si>
-  <si>
-    <t>SWQLRID</t>
-  </si>
-  <si>
-    <t>SNAME</t>
-  </si>
-  <si>
-    <t>权利人名称</t>
-  </si>
-  <si>
-    <t>SCTYPE</t>
-  </si>
-  <si>
-    <t>权利人证件类型(数据字典)</t>
-  </si>
-  <si>
-    <t>SCNUM</t>
-  </si>
-  <si>
-    <t>权利人证件号</t>
-  </si>
-  <si>
-    <t>SHARENUM</t>
-  </si>
-  <si>
-    <t>证书号</t>
-  </si>
-  <si>
-    <t>QLRXZ</t>
-  </si>
-  <si>
-    <t>权利人类型(数据字典)</t>
-  </si>
-  <si>
-    <t>A.7字典表</t>
-  </si>
-  <si>
-    <t>GYQK</t>
-  </si>
-  <si>
-    <t>共有方式</t>
-  </si>
-  <si>
-    <t>A.8字典表</t>
-  </si>
-  <si>
-    <t>QLRLB</t>
-  </si>
-  <si>
-    <t>权利人类别(数据字典)</t>
-  </si>
-  <si>
-    <t>A.9字典表</t>
-  </si>
-  <si>
-    <t>ZYFE</t>
-  </si>
-  <si>
-    <t>占有份额</t>
-  </si>
-  <si>
-    <t>代码</t>
-  </si>
-  <si>
-    <t>土地权属</t>
-  </si>
-  <si>
-    <t>国有土地使用权出让</t>
-  </si>
-  <si>
-    <t>土地使用权出售</t>
-  </si>
-  <si>
-    <t>土地使用权赠与</t>
-  </si>
-  <si>
-    <t>土地使用权交换</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其他</t>
-  </si>
-  <si>
-    <t>房屋权属</t>
-  </si>
-  <si>
-    <t>房屋商品房买卖(增量房)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">房屋二手房买卖(存量房) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    房屋继承</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    房屋交换</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    房屋赠与 </t>
-  </si>
-  <si>
-    <t>未审核的临时状态</t>
-  </si>
-  <si>
-    <t>审核通过</t>
-  </si>
-  <si>
-    <t>审核不通过</t>
-  </si>
-  <si>
-    <t>退件</t>
-  </si>
-  <si>
-    <t>住宅</t>
-  </si>
-  <si>
-    <t>8层以内住宅(无电梯)</t>
-  </si>
-  <si>
-    <t>8层以内住宅(有电梯)</t>
-  </si>
-  <si>
-    <t>8层以上住宅(无电梯)</t>
-  </si>
-  <si>
-    <t>8层以上住宅(有电梯)</t>
-  </si>
-  <si>
-    <t>独栋别墅</t>
-  </si>
-  <si>
-    <t>联排别墅</t>
-  </si>
-  <si>
-    <t>叠拼别墅</t>
-  </si>
-  <si>
-    <t>双拼别墅</t>
-  </si>
-  <si>
-    <t>独立民宅</t>
-  </si>
-  <si>
-    <t>自建房（私房联建）</t>
-  </si>
-  <si>
-    <t>其他住宅</t>
-  </si>
-  <si>
-    <t>非住宅</t>
-  </si>
-  <si>
-    <t>临街商铺</t>
-  </si>
-  <si>
-    <t>商业用房</t>
-  </si>
-  <si>
-    <t xml:space="preserve">商场商铺 </t>
-  </si>
-  <si>
-    <t>车库</t>
-  </si>
-  <si>
-    <t>办公用房</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仓库用房 </t>
-  </si>
-  <si>
-    <t>仓储用房</t>
-  </si>
-  <si>
-    <t>工厂厂房</t>
-  </si>
-  <si>
-    <t>工业用房</t>
-  </si>
-  <si>
-    <t>综合用房</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>其他非住宅</t>
-  </si>
-  <si>
-    <t>规划用途</t>
-  </si>
-  <si>
-    <t>别墅</t>
-  </si>
-  <si>
-    <t>车库、车位</t>
-  </si>
-  <si>
-    <t>杂物间</t>
-  </si>
-  <si>
-    <t>商业</t>
-  </si>
-  <si>
-    <t>工业</t>
-  </si>
-  <si>
-    <t>教育</t>
-  </si>
-  <si>
-    <t>医疗卫生</t>
-  </si>
-  <si>
-    <t>文化娱乐</t>
-  </si>
-  <si>
-    <t>园林绿化</t>
-  </si>
-  <si>
-    <t>体育</t>
-  </si>
-  <si>
-    <t>交通</t>
-  </si>
-  <si>
-    <t>军事</t>
-  </si>
-  <si>
-    <t>会所</t>
-  </si>
-  <si>
-    <t>物业服务用房</t>
-  </si>
-  <si>
-    <t>居住区公共配套服务用房</t>
-  </si>
-  <si>
-    <t>仓储</t>
-  </si>
-  <si>
-    <t>市政设施</t>
-  </si>
-  <si>
-    <t>人民防空</t>
-  </si>
-  <si>
-    <t>宗教</t>
-  </si>
-  <si>
-    <t>监狱</t>
-  </si>
-  <si>
-    <t>涉外</t>
-  </si>
-  <si>
-    <t>房屋用途</t>
-  </si>
-  <si>
-    <t>成套住宅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  高档公寓</t>
-  </si>
-  <si>
-    <t>非成套住宅</t>
-  </si>
-  <si>
-    <t>集体宿舍</t>
-  </si>
-  <si>
-    <t>工业、交通、仓储</t>
-  </si>
-  <si>
-    <t>公共设施</t>
-  </si>
-  <si>
-    <t>铁路</t>
-  </si>
-  <si>
-    <t>民航</t>
-  </si>
-  <si>
-    <t>航运</t>
-  </si>
-  <si>
-    <t>公共运输</t>
-  </si>
-  <si>
-    <t>商业、金融、信息</t>
-  </si>
-  <si>
-    <t>商业服务</t>
-  </si>
-  <si>
-    <t>经营</t>
-  </si>
-  <si>
-    <t>旅游</t>
-  </si>
-  <si>
-    <t>金融保险</t>
-  </si>
-  <si>
-    <t>电讯信息</t>
-  </si>
-  <si>
-    <t>教育、医疗、卫生、科研</t>
-  </si>
-  <si>
-    <t>科研</t>
-  </si>
-  <si>
-    <t>文化、娱乐、体育</t>
-  </si>
-  <si>
-    <t>文化</t>
-  </si>
-  <si>
-    <t>新闻</t>
-  </si>
-  <si>
-    <t>娱乐</t>
-  </si>
-  <si>
-    <t>办公</t>
-  </si>
-  <si>
-    <t>其它</t>
-  </si>
-  <si>
-    <t>物管用房</t>
-  </si>
-  <si>
-    <t>房屋结构</t>
-  </si>
-  <si>
-    <t>钢结构</t>
-  </si>
-  <si>
-    <t>钢和钢筋混凝土结构</t>
-  </si>
-  <si>
-    <t>钢筋混凝土结构</t>
-  </si>
-  <si>
-    <t>混合结构</t>
-  </si>
-  <si>
-    <t>砖木结构</t>
-  </si>
-  <si>
-    <t>其它结构</t>
-  </si>
-  <si>
-    <t>房屋性质</t>
-  </si>
-  <si>
-    <t>市场化商品房</t>
-  </si>
-  <si>
-    <t>动迁房</t>
-  </si>
-  <si>
-    <t>配套商品房</t>
-  </si>
-  <si>
-    <t>公共租赁住房</t>
-  </si>
-  <si>
-    <t>廉租住房</t>
-  </si>
-  <si>
-    <t>限价普通商品住房</t>
-  </si>
-  <si>
-    <t>经济适用住房</t>
-  </si>
-  <si>
-    <t>定销商品房</t>
-  </si>
-  <si>
-    <t>集资建房</t>
-  </si>
-  <si>
-    <t>福利房</t>
-  </si>
-  <si>
-    <t>继承</t>
-  </si>
-  <si>
-    <t>调拨</t>
-  </si>
-  <si>
-    <t>价拔</t>
-  </si>
-  <si>
-    <t>拔用</t>
-  </si>
-  <si>
-    <t>协助过户</t>
-  </si>
-  <si>
-    <t>分析</t>
-  </si>
-  <si>
-    <t>买受</t>
-  </si>
-  <si>
-    <t>受赠</t>
-  </si>
-  <si>
-    <t>交换</t>
-  </si>
-  <si>
-    <t>自建</t>
-  </si>
-  <si>
-    <t>翻建</t>
-  </si>
-  <si>
-    <t>征用</t>
-  </si>
-  <si>
-    <t>收购</t>
-  </si>
-  <si>
-    <t>证件种类</t>
-  </si>
-  <si>
-    <t>身份证</t>
-  </si>
-  <si>
-    <t>港澳台身份证</t>
-  </si>
-  <si>
-    <t>护照</t>
-  </si>
-  <si>
-    <t>户口簿</t>
-  </si>
-  <si>
-    <t>军官证（士兵证）</t>
-  </si>
-  <si>
-    <t>统一社会信用证</t>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权利人类型</t>
-  </si>
-  <si>
-    <t>个人</t>
-  </si>
-  <si>
-    <t>企业</t>
-  </si>
-  <si>
-    <t>事业单位</t>
-  </si>
-  <si>
-    <t>国家机关</t>
-  </si>
-  <si>
-    <t>单独所有</t>
-  </si>
-  <si>
-    <t>共同共有</t>
-  </si>
-  <si>
-    <t>按份共有</t>
-  </si>
-  <si>
-    <t>其它共有</t>
-  </si>
-  <si>
-    <t>权利人类别</t>
-  </si>
-  <si>
-    <t>被查封人</t>
-  </si>
-  <si>
-    <t>查封申请人</t>
-  </si>
-  <si>
-    <t>预告抵押权人</t>
-  </si>
-  <si>
-    <t>预告抵押义务人</t>
-  </si>
-  <si>
-    <t>权利人</t>
-  </si>
-  <si>
-    <t>义务人</t>
-  </si>
-  <si>
-    <t>抵押权人</t>
-  </si>
-  <si>
-    <t>抵押人</t>
-  </si>
-  <si>
-    <t>预告权利人</t>
-  </si>
-  <si>
-    <t>预告义务人</t>
-  </si>
-  <si>
-    <t>债务人</t>
-  </si>
-  <si>
-    <t>申请人</t>
-  </si>
-  <si>
-    <t>权利人代理人</t>
-  </si>
-  <si>
-    <t>义务人代理人</t>
-  </si>
-  <si>
-    <t>字典？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(50)</t>
-  </si>
-  <si>
-    <t>ZRF_NAME</t>
-  </si>
-  <si>
-    <t>转让方名称</t>
-  </si>
-  <si>
-    <t>ZRF_ZJLX</t>
-  </si>
-  <si>
-    <t>转让方证件类型</t>
-  </si>
-  <si>
-    <t>ZRF_ID</t>
-  </si>
-  <si>
-    <t>转让方证件号</t>
-  </si>
-  <si>
-    <t>ZRF_TEL</t>
-  </si>
-  <si>
-    <t>VARCHAR2(20)</t>
-  </si>
-  <si>
-    <t>转让方联系电话</t>
-  </si>
-  <si>
-    <t>CSF_NAME</t>
-  </si>
-  <si>
-    <t>承受方姓名</t>
-  </si>
-  <si>
-    <t>CSF_ZJLX</t>
-  </si>
-  <si>
-    <t>承受方证件类型</t>
-  </si>
-  <si>
-    <t>CSF_ID</t>
-  </si>
-  <si>
-    <t>承受方证件号</t>
-  </si>
-  <si>
-    <t>CSF_TEL</t>
-  </si>
-  <si>
-    <t>承受方联系电话</t>
-  </si>
-  <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>层高</t>
-  </si>
-  <si>
-    <t>CX</t>
-  </si>
-  <si>
-    <t>朝向</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>端房</t>
-  </si>
-  <si>
-    <t>JG</t>
-  </si>
-  <si>
-    <t>景观</t>
-  </si>
-  <si>
-    <t>ZXQK</t>
-  </si>
-  <si>
-    <t>装修情况</t>
-  </si>
-  <si>
-    <t>SFSYFC</t>
-  </si>
-  <si>
-    <t>是否私有房产</t>
-  </si>
-  <si>
-    <t>NUMBER(12,2)</t>
-  </si>
-  <si>
-    <t>HTZJ</t>
-  </si>
-  <si>
-    <t>合同总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUID由数据来源方产生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEZZS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECSWHJSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEDFJYFJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEGRSDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEYHS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETDZJS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPRQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-  </si>
-  <si>
-    <t>JCNF</t>
-  </si>
-  <si>
-    <t>VARCHAR2(4)</t>
-  </si>
-  <si>
-    <t>建成年份</t>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不动产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRUD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Varchar(50）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不动产证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BDCZH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(250)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房屋类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSWSJS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSWSRQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契税完税日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契税完税基数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.2字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGJG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评估价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评估业务号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAX_SWXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税务完税信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAX_SWSH_TS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税务审核表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAX_TSXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税务退税信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税务税票附件信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAX_SPFJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宗地属性结构描述表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BDC_FWSX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房屋属性表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BDC_CQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BDC_QLR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权利人表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BDC_ZD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T.2字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于共享不动产交易过程中交易数据信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于共享不动产交易涉及的完税数据信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.6字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.3字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.4字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考资料：《(新)20190102湘潭市税务局与湘潭市国土不动产登记系统数据库对接方案(修改终稿)(税务)》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YWH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Varchar（50）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除，原因与YWH字段重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法提供</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.10字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在办</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">退件 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税票日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1685,7 +1742,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1749,19 +1806,27 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
       <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1795,6 +1860,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,7 +1939,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1938,6 +2009,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1946,18 +2038,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2276,7 +2356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9E31A2-E2F5-4F2B-A91C-9326D8EE97C9}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2290,28 +2370,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2319,25 +2399,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2345,22 +2425,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -2369,22 +2449,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -2393,22 +2473,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -2417,22 +2497,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -2441,25 +2521,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2467,22 +2547,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -2491,28 +2571,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
-        <v>495</v>
+      <c r="A10" s="23" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -2550,10 +2630,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2561,7 +2641,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2569,7 +2649,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2577,7 +2657,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2585,7 +2665,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2593,7 +2673,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2601,7 +2681,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2609,7 +2689,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2617,7 +2697,7 @@
         <v>201</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2625,7 +2705,7 @@
         <v>202</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2633,7 +2713,7 @@
         <v>203</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2641,7 +2721,7 @@
         <v>204</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2649,7 +2729,7 @@
         <v>205</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2657,7 +2737,7 @@
         <v>209</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2754,9 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2685,10 +2767,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2696,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2704,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2712,7 +2794,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2720,7 +2802,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2750,16 +2832,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2767,13 +2849,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" s="23">
+        <v>246</v>
+      </c>
+      <c r="C2" s="30">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>259</v>
+      <c r="D2" s="30" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2781,117 +2863,117 @@
         <v>101</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+        <v>247</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+        <v>248</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+        <v>249</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+        <v>250</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+        <v>251</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+        <v>252</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+        <v>253</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+        <v>254</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+        <v>255</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+        <v>256</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+        <v>257</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -2901,13 +2983,13 @@
         <v>201</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="23">
+        <v>259</v>
+      </c>
+      <c r="C15" s="30">
         <v>2</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>273</v>
+      <c r="D15" s="30" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2915,23 +2997,23 @@
         <v>202</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+        <v>261</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C17" s="9">
         <v>6</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2939,13 +3021,13 @@
         <v>204</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C18" s="9">
         <v>3</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2953,13 +3035,13 @@
         <v>205</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C19" s="9">
         <v>5</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2967,13 +3049,13 @@
         <v>206</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C20" s="9">
         <v>4</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2981,13 +3063,13 @@
         <v>207</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C21" s="23">
+        <v>268</v>
+      </c>
+      <c r="C21" s="30">
         <v>99</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>282</v>
+      <c r="D21" s="30" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2995,10 +3077,10 @@
         <v>209</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+        <v>270</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3035,10 +3117,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3046,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3054,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3062,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3070,7 +3152,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3078,7 +3160,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3086,7 +3168,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3094,7 +3176,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3102,7 +3184,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3110,7 +3192,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3118,7 +3200,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3126,7 +3208,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3134,7 +3216,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3142,7 +3224,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3150,7 +3232,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3158,7 +3240,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3166,7 +3248,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3174,7 +3256,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3182,7 +3264,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3190,7 +3272,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3198,7 +3280,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3206,7 +3288,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3214,7 +3296,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3222,7 +3304,7 @@
         <v>99</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3251,10 +3333,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3262,7 +3344,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3270,7 +3352,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3278,7 +3360,7 @@
         <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3286,7 +3368,7 @@
         <v>112</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3294,7 +3376,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3302,7 +3384,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3310,7 +3392,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3318,7 +3400,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3326,7 +3408,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3334,7 +3416,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3342,7 +3424,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3350,7 +3432,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3358,7 +3440,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3366,7 +3448,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3374,7 +3456,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3382,7 +3464,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3390,7 +3472,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3398,7 +3480,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3406,7 +3488,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3414,7 +3496,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3422,7 +3504,7 @@
         <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3430,7 +3512,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3438,7 +3520,7 @@
         <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3446,7 +3528,7 @@
         <v>43</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3454,7 +3536,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3462,7 +3544,7 @@
         <v>51</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3470,7 +3552,7 @@
         <v>52</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3478,7 +3560,7 @@
         <v>53</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3486,7 +3568,7 @@
         <v>54</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3494,7 +3576,7 @@
         <v>55</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3502,7 +3584,7 @@
         <v>60</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3510,7 +3592,7 @@
         <v>70</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3518,7 +3600,7 @@
         <v>80</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3526,7 +3608,7 @@
         <v>81</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3534,7 +3616,7 @@
         <v>82</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3542,7 +3624,7 @@
         <v>83</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3550,7 +3632,7 @@
         <v>84</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3579,10 +3661,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3590,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3598,7 +3680,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3606,7 +3688,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3614,7 +3696,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3622,7 +3704,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3630,7 +3712,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3660,10 +3742,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3671,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3679,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3687,7 +3769,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3695,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3703,7 +3785,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3711,7 +3793,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3719,7 +3801,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3727,7 +3809,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3735,7 +3817,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3743,7 +3825,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3751,7 +3833,7 @@
         <v>99</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3781,114 +3863,114 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3918,10 +4000,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3929,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3937,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3945,7 +4027,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3953,7 +4035,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3961,7 +4043,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3969,7 +4051,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3977,7 +4059,7 @@
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4007,10 +4089,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4018,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4026,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -4034,7 +4116,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4042,7 +4124,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4050,7 +4132,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4065,14 +4147,14 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="5" bestFit="1" customWidth="1"/>
@@ -4082,10 +4164,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
@@ -4101,23 +4183,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
+      <c r="B2" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>499</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
+      <c r="E2" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4125,34 +4207,36 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -4161,25 +4245,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>23</v>
@@ -4188,18 +4272,16 @@
         <v>24</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>502</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>23</v>
@@ -4208,18 +4290,18 @@
         <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>503</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>23</v>
@@ -4228,10 +4310,10 @@
         <v>24</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4239,7 +4321,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>504</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>23</v>
@@ -4248,18 +4330,18 @@
         <v>24</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>505</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>23</v>
@@ -4268,10 +4350,10 @@
         <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4279,7 +4361,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>39</v>
+        <v>506</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>23</v>
@@ -4288,18 +4370,18 @@
         <v>24</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>41</v>
+        <v>507</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>23</v>
@@ -4308,10 +4390,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4319,25 +4401,27 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
+        <v>508</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
@@ -4346,7 +4430,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F14" s="6"/>
     </row>
@@ -4355,7 +4439,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
@@ -4364,25 +4448,25 @@
         <v>24</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="29">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F16" s="6"/>
     </row>
@@ -4391,34 +4475,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="29">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>466</v>
+        <v>45</v>
       </c>
       <c r="F18" s="6"/>
     </row>
@@ -4427,34 +4511,70 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="D19" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="E19" s="6" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="29">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>53</v>
+        <v>451</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="F22" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4483,10 +4603,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4494,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4502,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -4510,7 +4630,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4518,7 +4638,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4548,122 +4668,122 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -4691,10 +4811,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4702,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4710,7 +4830,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -4718,7 +4838,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -4733,11 +4853,9 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4746,7 +4864,7 @@
     <col min="3" max="3" width="10.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4771,226 +4889,246 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
+      <c r="B2" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>499</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>4</v>
+      <c r="A4" s="29">
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>489</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>8</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>10</v>
-      </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>12</v>
-      </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="D14" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5003,7 +5141,7 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5014,7 +5152,7 @@
     <col min="3" max="3" width="10.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -5039,94 +5177,96 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
+      <c r="B2" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>499</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="E2" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>451</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>395</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -5135,34 +5275,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -5171,28 +5311,36 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10" s="18"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
+      <c r="D10" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
@@ -5233,6 +5381,16 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15" s="18"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5258,7 +5416,7 @@
     <col min="3" max="3" width="13.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -5283,23 +5441,23 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>456</v>
+      <c r="B2" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>499</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>97</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -5310,10 +5468,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>456</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>469</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
@@ -5325,16 +5483,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -5343,16 +5501,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -5361,26 +5519,36 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7" s="18"/>
-      <c r="E7"/>
-      <c r="F7"/>
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5442,7 +5610,9 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5451,7 +5621,7 @@
     <col min="3" max="3" width="15.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -5476,23 +5646,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>95</v>
+      <c r="B2" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>499</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>97</v>
+      <c r="E2" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5503,7 +5673,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
@@ -5518,16 +5688,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -5536,16 +5706,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -5554,16 +5724,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -5572,16 +5742,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -5590,16 +5760,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -5608,16 +5778,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -5626,16 +5796,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -5644,16 +5814,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -5662,16 +5832,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -5680,16 +5850,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -5698,16 +5868,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -5716,19 +5886,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -5736,16 +5906,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -5754,16 +5924,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -5772,16 +5942,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -5790,19 +5960,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -5810,19 +5980,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -5830,16 +6000,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -5848,19 +6018,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -5868,19 +6038,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -5888,16 +6058,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -5906,16 +6076,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -5924,16 +6094,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -5942,16 +6112,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -5960,16 +6130,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F28" s="3"/>
     </row>
@@ -5978,16 +6148,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="F29" s="3"/>
     </row>
@@ -5996,16 +6166,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F30" s="3"/>
     </row>
@@ -6014,16 +6184,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F31" s="3"/>
     </row>
@@ -6032,16 +6202,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F32" s="3"/>
     </row>
@@ -6057,9 +6227,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6093,706 +6265,730 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C3" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>174</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>175</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="27">
-        <v>14</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="C24" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C25" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="D25" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E25" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="F25" s="27"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C26" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="D26" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E26" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>402</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
-        <v>21</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
-        <v>24</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
-        <v>25</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
-        <v>26</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>397</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29" s="15">
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
+      <c r="A30" s="15">
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
+      <c r="A31" s="15">
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
+      <c r="A32" s="15">
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>11</v>
+        <v>413</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>505</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
+      <c r="A33" s="15">
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>429</v>
+        <v>11</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="F33" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="A34" s="15">
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>217</v>
+        <v>416</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>218</v>
+        <v>417</v>
       </c>
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+      <c r="A35" s="15">
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>432</v>
+        <v>205</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>434</v>
+        <v>206</v>
       </c>
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
+      <c r="A36" s="15">
         <v>35</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="D36" s="15" t="s">
+      <c r="B36" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="D36" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="F36" s="13"/>
+      <c r="E36" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
+      <c r="A37" s="15">
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>448</v>
+        <v>202</v>
       </c>
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
+      <c r="A38" s="15">
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+      <c r="A39" s="15">
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="F39" s="13"/>
+        <v>448</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>492</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6842,23 +7038,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>190</v>
+      <c r="B2" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>499</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>205</v>
+      <c r="E2" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6866,16 +7062,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -6884,19 +7080,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -6904,19 +7100,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -6924,16 +7120,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -6942,16 +7138,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -6960,19 +7156,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -6980,16 +7176,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -6998,16 +7194,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -7016,16 +7212,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -7034,13 +7230,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
@@ -7052,19 +7248,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -7079,11 +7275,9 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7117,23 +7311,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>95</v>
+      <c r="B2" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>499</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>97</v>
+      <c r="E2" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7141,16 +7335,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -7159,19 +7353,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -7179,16 +7373,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -7197,19 +7391,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -7217,19 +7411,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -7237,19 +7431,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -7257,19 +7451,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -7277,16 +7471,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -7295,16 +7489,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -7313,16 +7507,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -7331,18 +7525,38 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>495</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
